--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2133.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2133.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.391064983509801</v>
+        <v>0.6448121666908264</v>
       </c>
       <c r="B1">
-        <v>2.904427916771698</v>
+        <v>1.478277683258057</v>
       </c>
       <c r="C1">
-        <v>1.186566735079122</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8441028680020229</v>
+        <v>2.305998802185059</v>
       </c>
       <c r="E1">
-        <v>0.7539933534219856</v>
+        <v>1.371301531791687</v>
       </c>
     </row>
   </sheetData>
